--- a/data/Test.xlsx
+++ b/data/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS4529\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0959AE-193A-4D7A-A045-85E041A26D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B357D-2929-4251-BE14-5097A57EBC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,245 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="346">
   <si>
     <t>England</t>
   </si>
   <si>
-    <t>Isle Of Man</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
     <t>Northern Ireland</t>
   </si>
   <si>
     <t>Scotland</t>
   </si>
   <si>
-    <t>SE5 8RJ</t>
-  </si>
-  <si>
-    <t>DE23 4EE</t>
-  </si>
-  <si>
-    <t>AB10 1SY</t>
-  </si>
-  <si>
-    <t>16-040</t>
-  </si>
-  <si>
-    <t>AB16 5YR</t>
-  </si>
-  <si>
-    <t>LE12 6SY</t>
-  </si>
-  <si>
-    <t>HA 52EL</t>
-  </si>
-  <si>
-    <t>TN249JA</t>
-  </si>
-  <si>
-    <t>GU47RE</t>
-  </si>
-  <si>
-    <t>S5 7UF</t>
-  </si>
-  <si>
-    <t>LU4 9TL</t>
-  </si>
-  <si>
-    <t>MK13 9HN</t>
-  </si>
-  <si>
-    <t>BR1 5JY</t>
-  </si>
-  <si>
-    <t>AB25 2NS</t>
-  </si>
-  <si>
-    <t>LN5 9DQ</t>
-  </si>
-  <si>
-    <t>M9 5QA</t>
-  </si>
-  <si>
-    <t>S45 9QE</t>
-  </si>
-  <si>
-    <t>RG5 4UG</t>
-  </si>
-  <si>
-    <t>LE67 4QU</t>
-  </si>
-  <si>
-    <t>AB53 6SX</t>
-  </si>
-  <si>
-    <t>AB11 5DZ</t>
-  </si>
-  <si>
-    <t>BT8 6JU</t>
-  </si>
-  <si>
-    <t>DE56 1NU</t>
-  </si>
-  <si>
-    <t>AB25 1NL</t>
-  </si>
-  <si>
-    <t>IM2 4HS</t>
-  </si>
-  <si>
-    <t>IM2 3EP</t>
-  </si>
-  <si>
-    <t>IM2 7DA</t>
-  </si>
-  <si>
-    <t>IM4 3LS</t>
-  </si>
-  <si>
-    <t>JE2 7WZ</t>
-  </si>
-  <si>
-    <t>JE2 6LZ</t>
-  </si>
-  <si>
-    <t>JE3 2DB</t>
-  </si>
-  <si>
-    <t>JE3 8FT</t>
-  </si>
-  <si>
-    <t>BT19 6BD</t>
-  </si>
-  <si>
-    <t>BT36 6EF</t>
-  </si>
-  <si>
-    <t>BT5 5JA</t>
-  </si>
-  <si>
-    <t>AB25 3BJ</t>
-  </si>
-  <si>
-    <t>BT8 8RS</t>
-  </si>
-  <si>
-    <t>BT13 3GD</t>
-  </si>
-  <si>
-    <t>BT24 8SL</t>
-  </si>
-  <si>
-    <t>BT701FB</t>
-  </si>
-  <si>
-    <t>BT19 7EA</t>
-  </si>
-  <si>
-    <t>BT79 7TP</t>
-  </si>
-  <si>
-    <t>SR2 7NQ</t>
-  </si>
-  <si>
-    <t>BT47 3DX</t>
-  </si>
-  <si>
-    <t>AB241RZ</t>
-  </si>
-  <si>
-    <t>BT20 3GE</t>
-  </si>
-  <si>
-    <t>BT23 8EX</t>
-  </si>
-  <si>
-    <t>BT196ZG</t>
-  </si>
-  <si>
-    <t>BT23 8EZ</t>
-  </si>
-  <si>
-    <t>BT537JS</t>
-  </si>
-  <si>
-    <t>BT28 2RS</t>
-  </si>
-  <si>
-    <t>BT45 7ST</t>
-  </si>
-  <si>
-    <t>AB24 5QQ</t>
-  </si>
-  <si>
-    <t>BT38 9TS</t>
-  </si>
-  <si>
-    <t>BT53 8AZ</t>
-  </si>
-  <si>
-    <t>BT92 8AP</t>
-  </si>
-  <si>
-    <t>BT32 5DD</t>
-  </si>
-  <si>
-    <t>BT23 6AW</t>
-  </si>
-  <si>
-    <t>BT62 3SW</t>
-  </si>
-  <si>
-    <t>BT9 6JL</t>
-  </si>
-  <si>
-    <t>BT25 2PW</t>
-  </si>
-  <si>
-    <t>BT65 5BY</t>
-  </si>
-  <si>
-    <t>AB24 3NU</t>
-  </si>
-  <si>
-    <t>BT63 6EB</t>
-  </si>
-  <si>
-    <t>BT37 0WW</t>
-  </si>
-  <si>
-    <t>BT71 7PA</t>
-  </si>
-  <si>
-    <t>BT26 6PG</t>
-  </si>
-  <si>
-    <t>BT28 3RU</t>
-  </si>
-  <si>
-    <t>BT37 0LA</t>
-  </si>
-  <si>
-    <t>BT36 5XE</t>
-  </si>
-  <si>
-    <t>BT62 3FN</t>
-  </si>
-  <si>
-    <t>AB25 2JX</t>
-  </si>
-  <si>
-    <t>BT9 5PR</t>
-  </si>
-  <si>
-    <t>BT621RS</t>
-  </si>
-  <si>
     <t>BT330GH</t>
   </si>
   <si>
@@ -555,274 +327,742 @@
     <t>BT45 5NB</t>
   </si>
   <si>
-    <t>BT94 3DX</t>
-  </si>
-  <si>
-    <t>BT10 0FN</t>
-  </si>
-  <si>
-    <t>AB12 3TU</t>
-  </si>
-  <si>
-    <t>DG9 7BE</t>
-  </si>
-  <si>
-    <t>DG8 0PB</t>
-  </si>
-  <si>
-    <t>AB54 8FH</t>
-  </si>
-  <si>
-    <t>PA2 7RB</t>
-  </si>
-  <si>
-    <t>IV2 7AP</t>
-  </si>
-  <si>
-    <t>DD11 4HN</t>
-  </si>
-  <si>
-    <t>G41 2RW</t>
-  </si>
-  <si>
-    <t>KY11 8QQ</t>
-  </si>
-  <si>
-    <t>EH21 6EG</t>
-  </si>
-  <si>
-    <t>AB166QB</t>
-  </si>
-  <si>
-    <t>G61 3PW</t>
-  </si>
-  <si>
-    <t>KA10 6XF</t>
-  </si>
-  <si>
-    <t>AB39 2LU</t>
-  </si>
-  <si>
-    <t>EH5 3DE</t>
-  </si>
-  <si>
-    <t>AB15 8TP</t>
-  </si>
-  <si>
-    <t>FK8 3DL</t>
-  </si>
-  <si>
-    <t>G43 2QN</t>
-  </si>
-  <si>
-    <t>G63 9DR</t>
-  </si>
-  <si>
-    <t>FK8 1UF</t>
-  </si>
-  <si>
-    <t>KY11 9NQ</t>
-  </si>
-  <si>
-    <t>EH234NL</t>
-  </si>
-  <si>
-    <t>AB41 8SF</t>
-  </si>
-  <si>
-    <t>FK150NR</t>
-  </si>
-  <si>
-    <t>AB39 3UD</t>
-  </si>
-  <si>
-    <t>DD2 2EX</t>
-  </si>
-  <si>
-    <t>IV32 7LB</t>
-  </si>
-  <si>
-    <t>EH4 2AJ</t>
-  </si>
-  <si>
-    <t>FK7 8LQ</t>
-  </si>
-  <si>
-    <t>PH2 9JB</t>
-  </si>
-  <si>
-    <t>PH2 7AJ</t>
-  </si>
-  <si>
-    <t>EH9 2AG</t>
-  </si>
-  <si>
-    <t>AB14 0SD</t>
-  </si>
-  <si>
-    <t>AB43 8WA</t>
-  </si>
-  <si>
-    <t>EH14 5DX</t>
-  </si>
-  <si>
-    <t>PA19 1PY</t>
-  </si>
-  <si>
-    <t>EH6 4BL</t>
-  </si>
-  <si>
-    <t>AB244ED</t>
-  </si>
-  <si>
-    <t>IV32 7JY</t>
-  </si>
-  <si>
-    <t>G20 7RH</t>
-  </si>
-  <si>
-    <t>AB24 5NJ</t>
-  </si>
-  <si>
-    <t>ML1 5GL</t>
-  </si>
-  <si>
-    <t>G77 6HZ</t>
-  </si>
-  <si>
-    <t>AB51 4DL</t>
-  </si>
-  <si>
-    <t>AB24 5NX</t>
-  </si>
-  <si>
-    <t>G42 0EA</t>
-  </si>
-  <si>
-    <t>AB34 4XA</t>
-  </si>
-  <si>
-    <t>G66 4UL</t>
-  </si>
-  <si>
-    <t>EH14 7NN</t>
-  </si>
-  <si>
-    <t>PA345JS</t>
-  </si>
-  <si>
-    <t>TD2 6AW</t>
-  </si>
-  <si>
-    <t>FK9 4JN</t>
-  </si>
-  <si>
-    <t>KY8 5BG</t>
-  </si>
-  <si>
-    <t>PA134EN</t>
-  </si>
-  <si>
-    <t>AB51 0BG</t>
-  </si>
-  <si>
-    <t>AB22 8SF</t>
-  </si>
-  <si>
-    <t>DD8 2RY</t>
-  </si>
-  <si>
-    <t>AB56 4SN</t>
-  </si>
-  <si>
-    <t>G71 7TH</t>
-  </si>
-  <si>
-    <t>PH1 5PY</t>
-  </si>
-  <si>
-    <t>AB11 6ES</t>
-  </si>
-  <si>
-    <t>EH8 9DH</t>
-  </si>
-  <si>
-    <t>PA19 1HR</t>
-  </si>
-  <si>
-    <t>G64 3JE</t>
-  </si>
-  <si>
-    <t>TD5 8BY</t>
-  </si>
-  <si>
-    <t>KY16 8QL</t>
-  </si>
-  <si>
-    <t>AB16 7EH</t>
-  </si>
-  <si>
-    <t>KY11 8GE</t>
-  </si>
-  <si>
-    <t>G42 9UB</t>
-  </si>
-  <si>
-    <t>KY15 7QW</t>
-  </si>
-  <si>
-    <t>AB43 9RY</t>
-  </si>
-  <si>
-    <t>EH15 2PN</t>
-  </si>
-  <si>
-    <t>DD9 6BA</t>
-  </si>
-  <si>
-    <t>AB51 5PL</t>
-  </si>
-  <si>
-    <t>PH14 9RQ</t>
-  </si>
-  <si>
-    <t>KA9 2HH</t>
-  </si>
-  <si>
-    <t>G51 4DP</t>
-  </si>
-  <si>
-    <t>AB24 2XH</t>
-  </si>
-  <si>
-    <t>AB39 2BZ</t>
-  </si>
-  <si>
-    <t>G63 9QF</t>
-  </si>
-  <si>
-    <t>EH3 6LG</t>
-  </si>
-  <si>
-    <t>ML5 3HS</t>
-  </si>
-  <si>
-    <t>EH19 3RQ</t>
-  </si>
-  <si>
-    <t>EH19 3NS</t>
-  </si>
-  <si>
-    <t>AB21 9NR</t>
-  </si>
-  <si>
-    <t>AB245SS</t>
-  </si>
-  <si>
-    <t>EH41 4NS</t>
-  </si>
-  <si>
-    <t>AB53 8QL</t>
+    <t>PO7 5GE</t>
+  </si>
+  <si>
+    <t>PE11 3FQ</t>
+  </si>
+  <si>
+    <t>NE20 9SZ</t>
+  </si>
+  <si>
+    <t>AB11 6HS</t>
+  </si>
+  <si>
+    <t>SG27PB</t>
+  </si>
+  <si>
+    <t>AB25 1XF</t>
+  </si>
+  <si>
+    <t>HP9 2DJ</t>
+  </si>
+  <si>
+    <t>UB5 6NA</t>
+  </si>
+  <si>
+    <t>TR7 2AA</t>
+  </si>
+  <si>
+    <t>L36 3XR</t>
+  </si>
+  <si>
+    <t>SW6 4HE</t>
+  </si>
+  <si>
+    <t>NE66 2LP</t>
+  </si>
+  <si>
+    <t>W5 1JG</t>
+  </si>
+  <si>
+    <t>SY13 1HP</t>
+  </si>
+  <si>
+    <t>NR11PR</t>
+  </si>
+  <si>
+    <t>E11 4RW</t>
+  </si>
+  <si>
+    <t>AB245RQ</t>
+  </si>
+  <si>
+    <t>E2 8FB</t>
+  </si>
+  <si>
+    <t>TS5 6QU</t>
+  </si>
+  <si>
+    <t>IG1 3NJ</t>
+  </si>
+  <si>
+    <t>FY85PA</t>
+  </si>
+  <si>
+    <t>E7 9RU</t>
+  </si>
+  <si>
+    <t>ST21 6LW</t>
+  </si>
+  <si>
+    <t>YO60 6QW</t>
+  </si>
+  <si>
+    <t>MK45 2US</t>
+  </si>
+  <si>
+    <t>GL52 3BS</t>
+  </si>
+  <si>
+    <t>SL7 2JU</t>
+  </si>
+  <si>
+    <t>NG96JN</t>
+  </si>
+  <si>
+    <t>AB10 6SJ</t>
+  </si>
+  <si>
+    <t>PO2 0DU</t>
+  </si>
+  <si>
+    <t>EN5 4AQ</t>
+  </si>
+  <si>
+    <t>NE28 8RN</t>
+  </si>
+  <si>
+    <t>IV25GJ</t>
+  </si>
+  <si>
+    <t>L28 8AG</t>
+  </si>
+  <si>
+    <t>NW1 9PR</t>
+  </si>
+  <si>
+    <t>AB16 5EQ</t>
+  </si>
+  <si>
+    <t>NE29 8DB</t>
+  </si>
+  <si>
+    <t>AB15 4BE</t>
+  </si>
+  <si>
+    <t>LN11 0RR</t>
+  </si>
+  <si>
+    <t>BH3 7HY</t>
+  </si>
+  <si>
+    <t>DY9 9RG</t>
+  </si>
+  <si>
+    <t>E9 5HX</t>
+  </si>
+  <si>
+    <t>LS8 3ER</t>
+  </si>
+  <si>
+    <t>NW3 6JP</t>
+  </si>
+  <si>
+    <t>E2 7DJ</t>
+  </si>
+  <si>
+    <t>NN3 8LD</t>
+  </si>
+  <si>
+    <t>TS9 6HJ</t>
+  </si>
+  <si>
+    <t>SW11 5LF</t>
+  </si>
+  <si>
+    <t>WD19 4QN</t>
+  </si>
+  <si>
+    <t>NE3 4UU</t>
+  </si>
+  <si>
+    <t>DE236TP</t>
+  </si>
+  <si>
+    <t>SW19 7LR</t>
+  </si>
+  <si>
+    <t>AB243DB</t>
+  </si>
+  <si>
+    <t>CV116DZ</t>
+  </si>
+  <si>
+    <t>PO20 7DA</t>
+  </si>
+  <si>
+    <t>W4 5LB</t>
+  </si>
+  <si>
+    <t>AB11 5QE</t>
+  </si>
+  <si>
+    <t>RG24 9JR</t>
+  </si>
+  <si>
+    <t>AB316PL</t>
+  </si>
+  <si>
+    <t>S71 3PR</t>
+  </si>
+  <si>
+    <t>NG31 7HF</t>
+  </si>
+  <si>
+    <t>AB32 6NF</t>
+  </si>
+  <si>
+    <t>NE3 3DP</t>
+  </si>
+  <si>
+    <t>BL98PX</t>
+  </si>
+  <si>
+    <t>CR03HX</t>
+  </si>
+  <si>
+    <t>SE25 6BN</t>
+  </si>
+  <si>
+    <t>AB25 2JN</t>
+  </si>
+  <si>
+    <t>SK84HE</t>
+  </si>
+  <si>
+    <t>OL10 2AX</t>
+  </si>
+  <si>
+    <t>AB25 3UY</t>
+  </si>
+  <si>
+    <t>EN1 1PP</t>
+  </si>
+  <si>
+    <t>E16 3NG</t>
+  </si>
+  <si>
+    <t>W3 7JJ</t>
+  </si>
+  <si>
+    <t>YO24 3AR</t>
+  </si>
+  <si>
+    <t>B76 2UL</t>
+  </si>
+  <si>
+    <t>RH14 9HD</t>
+  </si>
+  <si>
+    <t>AB24 5EA</t>
+  </si>
+  <si>
+    <t>AB25 2AE</t>
+  </si>
+  <si>
+    <t>CR6 9RH</t>
+  </si>
+  <si>
+    <t>NW5 4LY</t>
+  </si>
+  <si>
+    <t>NE24 3DJ</t>
+  </si>
+  <si>
+    <t>AB210AQ</t>
+  </si>
+  <si>
+    <t>TS27 3AQ</t>
+  </si>
+  <si>
+    <t>HP124TL</t>
+  </si>
+  <si>
+    <t>PR5 8ES</t>
+  </si>
+  <si>
+    <t>SG5 2EE</t>
+  </si>
+  <si>
+    <t>AB11 5BL</t>
+  </si>
+  <si>
+    <t>NW117NP</t>
+  </si>
+  <si>
+    <t>WV11 1RA</t>
+  </si>
+  <si>
+    <t>BS30 8DN</t>
+  </si>
+  <si>
+    <t>AB25 2RR</t>
+  </si>
+  <si>
+    <t>L40 6HY</t>
+  </si>
+  <si>
+    <t>AB25 1SB</t>
+  </si>
+  <si>
+    <t>CO168JR</t>
+  </si>
+  <si>
+    <t>CB3 0GL</t>
+  </si>
+  <si>
+    <t>E13 9BU</t>
+  </si>
+  <si>
+    <t>BR1 5PY</t>
+  </si>
+  <si>
+    <t>BS16 6EQ</t>
+  </si>
+  <si>
+    <t>RG30 3BD</t>
+  </si>
+  <si>
+    <t>IP17 2HJ</t>
+  </si>
+  <si>
+    <t>IV30 1HQ</t>
+  </si>
+  <si>
+    <t>KA10 7LX</t>
+  </si>
+  <si>
+    <t>EH14 5AW</t>
+  </si>
+  <si>
+    <t>EH10 6TU</t>
+  </si>
+  <si>
+    <t>IV2 6FJ</t>
+  </si>
+  <si>
+    <t>AB11 6XA</t>
+  </si>
+  <si>
+    <t>AB15 4EB</t>
+  </si>
+  <si>
+    <t>KY168DQ</t>
+  </si>
+  <si>
+    <t>FK10 2LE</t>
+  </si>
+  <si>
+    <t>AB15 9NH</t>
+  </si>
+  <si>
+    <t>IV2 5BZ</t>
+  </si>
+  <si>
+    <t>AB23 8HN</t>
+  </si>
+  <si>
+    <t>EH13 0LL</t>
+  </si>
+  <si>
+    <t>EH413LL</t>
+  </si>
+  <si>
+    <t>AB32 6AW</t>
+  </si>
+  <si>
+    <t>AB10 6RF</t>
+  </si>
+  <si>
+    <t>G672JU</t>
+  </si>
+  <si>
+    <t>AB51 7RX</t>
+  </si>
+  <si>
+    <t>ML11 8SS</t>
+  </si>
+  <si>
+    <t>FK1 5AL</t>
+  </si>
+  <si>
+    <t>EH53 0SL</t>
+  </si>
+  <si>
+    <t>IV6 7TS</t>
+  </si>
+  <si>
+    <t>KY14 6JF</t>
+  </si>
+  <si>
+    <t>EH20 9BF</t>
+  </si>
+  <si>
+    <t>KW15 1DR</t>
+  </si>
+  <si>
+    <t>DD8 1UN</t>
+  </si>
+  <si>
+    <t>IV2 4NQ</t>
+  </si>
+  <si>
+    <t>AB12 4SF</t>
+  </si>
+  <si>
+    <t>AB24 3DB</t>
+  </si>
+  <si>
+    <t>EH12 6LJ</t>
+  </si>
+  <si>
+    <t>FK14 7HP</t>
+  </si>
+  <si>
+    <t>AB41 6DP</t>
+  </si>
+  <si>
+    <t>AB12 3QU</t>
+  </si>
+  <si>
+    <t>G33 6GY</t>
+  </si>
+  <si>
+    <t>EH4 6EL</t>
+  </si>
+  <si>
+    <t>IV3 5AN</t>
+  </si>
+  <si>
+    <t>IV2 5DT</t>
+  </si>
+  <si>
+    <t>KA13 6RH</t>
+  </si>
+  <si>
+    <t>AB43 9PT</t>
+  </si>
+  <si>
+    <t>AB10 6HX</t>
+  </si>
+  <si>
+    <t>AB21 7HB</t>
+  </si>
+  <si>
+    <t>AB42 5DP</t>
+  </si>
+  <si>
+    <t>FK10 1EA</t>
+  </si>
+  <si>
+    <t>AB15 4BA</t>
+  </si>
+  <si>
+    <t>DD24HW</t>
+  </si>
+  <si>
+    <t>AB14 0XE</t>
+  </si>
+  <si>
+    <t>AB43 9UW</t>
+  </si>
+  <si>
+    <t>PA13 4NP</t>
+  </si>
+  <si>
+    <t>AB106SN</t>
+  </si>
+  <si>
+    <t>DD5 4HD</t>
+  </si>
+  <si>
+    <t>PH12 8TP</t>
+  </si>
+  <si>
+    <t>AB24 3PF</t>
+  </si>
+  <si>
+    <t>FK9 4DQ</t>
+  </si>
+  <si>
+    <t>G13 1RB</t>
+  </si>
+  <si>
+    <t>EH52 6PX</t>
+  </si>
+  <si>
+    <t>AB16 7RA</t>
+  </si>
+  <si>
+    <t>AB15 8XQ</t>
+  </si>
+  <si>
+    <t>ML12 6AX</t>
+  </si>
+  <si>
+    <t>KY5 9LN</t>
+  </si>
+  <si>
+    <t>AB39 2NB</t>
+  </si>
+  <si>
+    <t>IV3 8AN</t>
+  </si>
+  <si>
+    <t>G84 8QL</t>
+  </si>
+  <si>
+    <t>EH10 4RE</t>
+  </si>
+  <si>
+    <t>FK16 6JB</t>
+  </si>
+  <si>
+    <t>IV18 0LQ</t>
+  </si>
+  <si>
+    <t>EH9 2BD</t>
+  </si>
+  <si>
+    <t>IV30 1LR</t>
+  </si>
+  <si>
+    <t>AB12 5GD</t>
+  </si>
+  <si>
+    <t>EH3 9EQ</t>
+  </si>
+  <si>
+    <t>G77 5AE</t>
+  </si>
+  <si>
+    <t>DG2 7PA</t>
+  </si>
+  <si>
+    <t>G66 1BY</t>
+  </si>
+  <si>
+    <t>G74 5DF</t>
+  </si>
+  <si>
+    <t>KY2 6NS</t>
+  </si>
+  <si>
+    <t>EH19 3QE</t>
+  </si>
+  <si>
+    <t>G61 1JA</t>
+  </si>
+  <si>
+    <t>G71 8FP</t>
+  </si>
+  <si>
+    <t>G61 1RX</t>
+  </si>
+  <si>
+    <t>G614PN</t>
+  </si>
+  <si>
+    <t>KY11 8BG</t>
+  </si>
+  <si>
+    <t>G42 8NA</t>
+  </si>
+  <si>
+    <t>G77 5EP</t>
+  </si>
+  <si>
+    <t>DD8 2UT</t>
+  </si>
+  <si>
+    <t>AB11 8SX</t>
+  </si>
+  <si>
+    <t>PH25 3EF</t>
+  </si>
+  <si>
+    <t>KA19 7BA</t>
+  </si>
+  <si>
+    <t>PH1 1RR</t>
+  </si>
+  <si>
+    <t>AB56 5BF</t>
+  </si>
+  <si>
+    <t>IV5 7ND</t>
+  </si>
+  <si>
+    <t>KY15 5UT</t>
+  </si>
+  <si>
+    <t>AB25 3UL</t>
+  </si>
+  <si>
+    <t>AB54 8HN</t>
+  </si>
+  <si>
+    <t>AB21 9QY</t>
+  </si>
+  <si>
+    <t>AB25 1EW</t>
+  </si>
+  <si>
+    <t>AB24 3EX</t>
+  </si>
+  <si>
+    <t>AB15 5NU</t>
+  </si>
+  <si>
+    <t>AB10 6QE</t>
+  </si>
+  <si>
+    <t>AB165DQ</t>
+  </si>
+  <si>
+    <t>AB24 5RN</t>
+  </si>
+  <si>
+    <t>EH10 5QR</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>AB245AX</t>
+  </si>
+  <si>
+    <t>B20 2EA</t>
+  </si>
+  <si>
+    <t>CF32 0SW</t>
+  </si>
+  <si>
+    <t>WA2 7TG</t>
+  </si>
+  <si>
+    <t>CF5 2RP</t>
+  </si>
+  <si>
+    <t>SA15 1EH</t>
+  </si>
+  <si>
+    <t>CH6 6EH</t>
+  </si>
+  <si>
+    <t>LD30AL</t>
+  </si>
+  <si>
+    <t>KY11 8JD</t>
+  </si>
+  <si>
+    <t>LL12 0AF</t>
+  </si>
+  <si>
+    <t>SA66 7SS</t>
+  </si>
+  <si>
+    <t>SA2 0GQ</t>
+  </si>
+  <si>
+    <t>AB41 7LE</t>
+  </si>
+  <si>
+    <t>CF62 3HX</t>
+  </si>
+  <si>
+    <t>CH5 3AH</t>
+  </si>
+  <si>
+    <t>SA328QR</t>
+  </si>
+  <si>
+    <t>IV2 5HS</t>
+  </si>
+  <si>
+    <t>CF14 1AW</t>
+  </si>
+  <si>
+    <t>CF15 8GT</t>
+  </si>
+  <si>
+    <t>CF34 9HF</t>
+  </si>
+  <si>
+    <t>CF35 5BB</t>
+  </si>
+  <si>
+    <t>LL28 4NW</t>
+  </si>
+  <si>
+    <t>CF23 9EU</t>
+  </si>
+  <si>
+    <t>CF32 9AS</t>
+  </si>
+  <si>
+    <t>NP13 1HS</t>
+  </si>
+  <si>
+    <t>SY23 2AZ</t>
+  </si>
+  <si>
+    <t>CF311JY</t>
+  </si>
+  <si>
+    <t>LL120SG</t>
+  </si>
+  <si>
+    <t>SA731AG</t>
+  </si>
+  <si>
+    <t>LL129PH</t>
+  </si>
+  <si>
+    <t>CH7 6SR</t>
+  </si>
+  <si>
+    <t>LD1 5RB</t>
+  </si>
+  <si>
+    <t>NP44 5SA</t>
+  </si>
+  <si>
+    <t>SA69 9PJ</t>
+  </si>
+  <si>
+    <t>CF46 6HD</t>
+  </si>
+  <si>
+    <t>CF14 0RE</t>
+  </si>
+  <si>
+    <t>LL16 5SB</t>
+  </si>
+  <si>
+    <t>LL12 9NE</t>
+  </si>
+  <si>
+    <t>SY15 6UL</t>
+  </si>
+  <si>
+    <t>NP19 8AD</t>
+  </si>
+  <si>
+    <t>LL27 0JP</t>
+  </si>
+  <si>
+    <t>LL11 5BL</t>
+  </si>
+  <si>
+    <t>LL57 3SS</t>
+  </si>
+  <si>
+    <t>LL57 1HH</t>
+  </si>
+  <si>
+    <t>AB24 AUY</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189:B267"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301:B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1161,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1169,20 +1409,23 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1206,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1230,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1238,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1270,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1310,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,20 +1561,23 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,1937 +1585,2569 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>285</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>190</v>
+        <v>291</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>195</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
         <v>4</v>
-      </c>
-      <c r="B202" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>225</v>
+        <v>28</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
+        <v>43</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B244" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>243</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B247" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B249" t="s">
-        <v>247</v>
+        <v>49</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B252" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>251</v>
+        <v>53</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>252</v>
+        <v>54</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>253</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>256</v>
+        <v>58</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B259" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>4</v>
-      </c>
-      <c r="B260" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>259</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>260</v>
+        <v>61</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>64</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B267" t="s">
-        <v>265</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1</v>
+      </c>
+      <c r="B286" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1</v>
+      </c>
+      <c r="B287" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1</v>
+      </c>
+      <c r="B289" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1</v>
+      </c>
+      <c r="B290" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1</v>
+      </c>
+      <c r="B292" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1</v>
+      </c>
+      <c r="B293" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1</v>
+      </c>
+      <c r="B295" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1</v>
+      </c>
+      <c r="B297" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1</v>
+      </c>
+      <c r="B298" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1</v>
+      </c>
+      <c r="B299" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>300</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>300</v>
+      </c>
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>300</v>
+      </c>
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>300</v>
+      </c>
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>300</v>
+      </c>
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>300</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>300</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>300</v>
+      </c>
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>300</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>300</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>300</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>300</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>300</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>300</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>300</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>300</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>300</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>300</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>300</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>300</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>300</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>300</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>300</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>300</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>300</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>300</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>300</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>300</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>300</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>300</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>300</v>
+      </c>
+      <c r="B334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>300</v>
+      </c>
+      <c r="B335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>300</v>
+      </c>
+      <c r="B336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>300</v>
+      </c>
+      <c r="B337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>300</v>
+      </c>
+      <c r="B338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>300</v>
+      </c>
+      <c r="B339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>300</v>
+      </c>
+      <c r="B340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>300</v>
+      </c>
+      <c r="B341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>300</v>
+      </c>
+      <c r="B342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>300</v>
+      </c>
+      <c r="B343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>300</v>
+      </c>
+      <c r="B344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>300</v>
+      </c>
+      <c r="B345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>300</v>
+      </c>
+      <c r="B346" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
